--- a/code/data/student.xlsx
+++ b/code/data/student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
   <si>
     <t xml:space="preserve">Sr No</t>
   </si>
@@ -250,10 +250,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD69"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="K69:K77 N2:N68 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -318,39 +318,30 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -410,7 +401,7 @@
         <v>4</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1" t="n">
         <v>0</v>
@@ -422,10 +413,10 @@
         <v>0</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="1" t="n">
         <v>0</v>
@@ -434,15 +425,6 @@
         <v>4</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -502,39 +484,30 @@
         <v>4</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="Z3" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -597,36 +570,27 @@
         <v>4</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -691,22 +655,13 @@
       <c r="T5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -767,36 +722,27 @@
         <v>4</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="AA6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -856,39 +802,30 @@
         <v>7</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -948,39 +885,30 @@
         <v>4</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1040,39 +968,30 @@
         <v>6</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1132,16 +1051,16 @@
         <v>7</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W10" s="1" t="n">
         <v>5</v>
@@ -1150,21 +1069,12 @@
         <v>6</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1224,39 +1134,30 @@
         <v>6</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1316,39 +1217,30 @@
         <v>8</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD12" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1408,39 +1300,30 @@
         <v>7</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1503,36 +1386,27 @@
         <v>6</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="X14" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD14" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1592,39 +1466,30 @@
         <v>8</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1684,39 +1549,30 @@
         <v>7</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T16" s="1" t="n">
         <v>6</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1776,39 +1632,30 @@
         <v>9</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB17" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD17" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1868,39 +1715,30 @@
         <v>7</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>7</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD18" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1960,39 +1798,30 @@
         <v>9</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X19" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Y19" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2052,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T20" s="1" t="n">
         <v>6</v>
@@ -2070,21 +1899,12 @@
         <v>6</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD20" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2144,39 +1964,30 @@
         <v>6</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB21" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2236,16 +2047,16 @@
         <v>9</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W22" s="1" t="n">
         <v>6</v>
@@ -2254,21 +2065,12 @@
         <v>7</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2328,39 +2130,30 @@
         <v>8</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD23" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2420,39 +2213,30 @@
         <v>9</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X24" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA24" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2512,10 +2296,10 @@
         <v>9</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U25" s="1" t="n">
         <v>6</v>
@@ -2524,27 +2308,18 @@
         <v>6</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2607,36 +2382,27 @@
         <v>7</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB26" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC26" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD26" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2696,39 +2462,30 @@
         <v>8</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T27" s="1" t="n">
         <v>7</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X27" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z27" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA27" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD27" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2788,39 +2545,30 @@
         <v>8</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>7</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X28" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC28" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD28" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2883,7 +2631,7 @@
         <v>8</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U29" s="1" t="n">
         <v>8</v>
@@ -2892,27 +2640,18 @@
         <v>8</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB29" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD29" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2972,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>7</v>
@@ -2984,27 +2723,18 @@
         <v>7</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>7</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB30" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC30" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3064,39 +2794,30 @@
         <v>9</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB31" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC31" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD31" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3156,19 +2877,19 @@
         <v>8</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>7</v>
@@ -3180,15 +2901,6 @@
         <v>7</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB32" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC32" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD32" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3251,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U33" s="1" t="n">
         <v>7</v>
@@ -3260,10 +2972,10 @@
         <v>7</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y33" s="1" t="n">
         <v>7</v>
@@ -3272,15 +2984,6 @@
         <v>6</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB33" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC33" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD33" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3352,27 +3055,18 @@
         <v>8</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD34" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3432,7 +3126,7 @@
         <v>7</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>8</v>
@@ -3444,27 +3138,18 @@
         <v>8</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC35" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD35" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3524,39 +3209,30 @@
         <v>10</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA36" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD36" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3616,39 +3292,30 @@
         <v>7</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>8</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X37" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC37" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD37" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3711,36 +3378,27 @@
         <v>9</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB38" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC38" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD38" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3812,27 +3470,18 @@
         <v>8</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y39" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB39" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC39" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD39" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3892,39 +3541,30 @@
         <v>9</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X40" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB40" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC40" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD40" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3987,36 +3627,27 @@
         <v>9</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z41" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD41" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4082,33 +3713,24 @@
         <v>8</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>7</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z42" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA42" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB42" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC42" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD42" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4168,39 +3790,30 @@
         <v>8</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB43" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD43" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4260,39 +3873,30 @@
         <v>9</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD44" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4352,39 +3956,30 @@
         <v>9</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB45" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC45" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD45" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4444,39 +4039,30 @@
         <v>8</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB46" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC46" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD46" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4536,7 +4122,7 @@
         <v>9</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>8</v>
@@ -4551,7 +4137,7 @@
         <v>8</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y47" s="1" t="n">
         <v>8</v>
@@ -4560,15 +4146,6 @@
         <v>8</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB47" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC47" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD47" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4628,39 +4205,30 @@
         <v>10</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X48" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z48" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA48" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB48" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC48" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD48" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4720,39 +4288,30 @@
         <v>10</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X49" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y49" s="1" t="n">
         <v>7</v>
       </c>
       <c r="Z49" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA49" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB49" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC49" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD49" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4815,36 +4374,27 @@
         <v>10</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB50" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC50" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD50" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4904,39 +4454,30 @@
         <v>9</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB51" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC51" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD51" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4996,39 +4537,30 @@
         <v>10</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X52" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB52" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC52" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD52" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5088,39 +4620,30 @@
         <v>9</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>10</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z53" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA53" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB53" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC53" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD53" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5183,36 +4706,27 @@
         <v>10</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB54" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD54" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5278,33 +4792,24 @@
         <v>10</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB55" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC55" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD55" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5364,9 +4869,6 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -5424,9 +4926,6 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -5484,9 +4983,6 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -5544,9 +5040,6 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -5604,9 +5097,6 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -5664,9 +5154,6 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -5724,9 +5211,6 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -5784,9 +5268,6 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -5844,9 +5325,6 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -5904,9 +5382,6 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -5964,9 +5439,6 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -6024,9 +5496,6 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6977,10 +6446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI1" activeCellId="2" sqref="K69:K77 N2:N68 AI1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7027,51 +6496,48 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7112,52 +6578,49 @@
       <c r="L2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N2" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="O2" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7198,52 +6661,49 @@
       <c r="L3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N3" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="O3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>6</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V3" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X3" s="1" t="n">
         <v>4</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7284,29 +6744,29 @@
       <c r="L4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N4" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O4" s="1" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U4" s="1" t="n">
         <v>6</v>
@@ -7315,21 +6775,18 @@
         <v>6</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7370,20 +6827,20 @@
       <c r="L5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N5" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O5" s="1" t="n">
         <v>8</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>8</v>
@@ -7392,30 +6849,27 @@
         <v>8</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7456,52 +6910,49 @@
       <c r="L6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N6" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V6" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7542,29 +6993,29 @@
       <c r="L7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N7" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U7" s="1" t="n">
         <v>7</v>
@@ -7573,21 +7024,18 @@
         <v>7</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7628,14 +7076,14 @@
       <c r="L8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N8" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="O8" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>8</v>
@@ -7644,16 +7092,16 @@
         <v>8</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>8</v>
@@ -7662,18 +7110,15 @@
         <v>8</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7715,14 +7160,12 @@
         <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -7735,7 +7178,6 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -7774,52 +7216,49 @@
       <c r="L10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N10" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O10" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V10" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7860,32 +7299,32 @@
       <c r="L11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N11" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O11" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>7</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V11" s="1" t="n">
         <v>8</v>
@@ -7894,18 +7333,15 @@
         <v>8</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7946,52 +7382,49 @@
       <c r="L12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N12" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="O12" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R12" s="1" t="n">
         <v>8</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V12" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -8032,29 +7465,29 @@
       <c r="L13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M13" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N13" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O13" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U13" s="1" t="n">
         <v>7</v>
@@ -8063,21 +7496,18 @@
         <v>7</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z13" s="1" t="n">
         <v>6</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -8118,52 +7548,49 @@
       <c r="L14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N14" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="O14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="S14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T14" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="U14" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V14" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X14" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z14" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8204,32 +7631,32 @@
       <c r="L15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N15" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O15" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>6</v>
@@ -8238,18 +7665,15 @@
         <v>6</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8290,52 +7714,49 @@
       <c r="L16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N16" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O16" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R16" s="1" t="n">
         <v>9</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V16" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8376,52 +7797,49 @@
       <c r="L17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M17" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N17" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O17" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>4</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8462,32 +7880,32 @@
       <c r="L18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N18" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O18" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V18" s="1" t="n">
         <v>7</v>
@@ -8499,15 +7917,12 @@
         <v>7</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB18" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8548,52 +7963,49 @@
       <c r="L19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M19" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N19" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O19" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V19" s="1" t="n">
         <v>9</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X19" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y19" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB19" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8634,52 +8046,49 @@
       <c r="L20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M20" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N20" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O20" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V20" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB20" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8720,32 +8129,32 @@
       <c r="L21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M21" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N21" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O21" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S21" s="1" t="n">
         <v>7</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V21" s="1" t="n">
         <v>7</v>
@@ -8754,18 +8163,15 @@
         <v>7</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8806,11 +8212,11 @@
       <c r="L22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>3</v>
@@ -8819,25 +8225,25 @@
         <v>3</v>
       </c>
       <c r="Q22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="T22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V22" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>5</v>
@@ -8846,12 +8252,9 @@
         <v>5</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8892,52 +8295,49 @@
       <c r="L23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N23" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O23" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V23" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8978,17 +8378,17 @@
       <c r="L24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M24" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N24" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O24" s="1" t="n">
         <v>6</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>8</v>
@@ -8997,33 +8397,30 @@
         <v>8</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T24" s="1" t="n">
         <v>7</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V24" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y24" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Z24" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA24" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9064,12 +8461,12 @@
       <c r="L25" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M25" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N25" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O25" s="1" t="n">
         <v>7</v>
       </c>
@@ -9083,33 +8480,30 @@
         <v>7</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T25" s="1" t="n">
         <v>6</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V25" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y25" s="1" t="n">
         <v>9</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB25" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9150,52 +8544,49 @@
       <c r="L26" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N26" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="O26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T26" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="U26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="V26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="X26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="AA26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9236,40 +8627,37 @@
       <c r="L27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N27" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O27" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q27" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S27" s="1" t="n">
+      <c r="T27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="U27" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -9308,14 +8696,14 @@
       <c r="L28" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N28" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="O28" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>10</v>
@@ -9330,10 +8718,10 @@
         <v>10</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>9</v>
@@ -9342,7 +8730,7 @@
         <v>9</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y28" s="1" t="n">
         <v>10</v>
@@ -9351,9 +8739,6 @@
         <v>10</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -9394,52 +8779,49 @@
       <c r="L29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="M29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="P29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q29" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="R29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>3</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V29" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB29" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9480,29 +8862,29 @@
       <c r="L30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M30" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N30" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O30" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30" s="1" t="n">
         <v>6</v>
@@ -9511,21 +8893,18 @@
         <v>6</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB30" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9566,14 +8945,14 @@
       <c r="L31" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M31" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N31" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O31" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>10</v>
@@ -9582,22 +8961,22 @@
         <v>10</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V31" s="1" t="n">
         <v>9</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X31" s="1" t="n">
         <v>10</v>
@@ -9606,12 +8985,9 @@
         <v>10</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB31" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -9652,29 +9028,29 @@
       <c r="L32" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M32" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N32" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="O32" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U32" s="1" t="n">
         <v>6</v>
@@ -9683,7 +9059,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>7</v>
@@ -9692,12 +9068,9 @@
         <v>7</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9738,52 +9111,49 @@
       <c r="L33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M33" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N33" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O33" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V33" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB33" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9824,52 +9194,49 @@
       <c r="L34" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N34" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O34" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>5</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V34" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z34" s="1" t="n">
         <v>6</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9910,32 +9277,32 @@
       <c r="L35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M35" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N35" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O35" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>6</v>
@@ -9947,15 +9314,12 @@
         <v>6</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB35" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9996,26 +9360,26 @@
       <c r="L36" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M36" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N36" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O36" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>7</v>
@@ -10030,18 +9394,15 @@
         <v>7</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z36" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA36" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB36" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -10082,32 +9443,32 @@
       <c r="L37" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M37" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N37" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O37" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V37" s="1" t="n">
         <v>9</v>
@@ -10116,18 +9477,15 @@
         <v>9</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y37" s="1" t="n">
         <v>10</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB37" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10168,52 +9526,49 @@
       <c r="L38" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M38" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N38" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O38" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T38" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U38" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="W38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="X38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y38" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="Z38" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB38" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -10254,52 +9609,49 @@
       <c r="L39" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M39" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N39" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O39" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P39" s="1" t="n">
         <v>7</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V39" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB39" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -10340,29 +9692,29 @@
       <c r="L40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M40" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N40" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O40" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U40" s="1" t="n">
         <v>6</v>
@@ -10371,21 +9723,18 @@
         <v>6</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z40" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB40" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10426,29 +9775,29 @@
       <c r="L41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M41" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N41" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="O41" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S41" s="1" t="n">
         <v>9</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U41" s="1" t="n">
         <v>8</v>
@@ -10457,7 +9806,7 @@
         <v>8</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X41" s="1" t="n">
         <v>10</v>
@@ -10466,12 +9815,9 @@
         <v>10</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10512,32 +9858,32 @@
       <c r="L42" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M42" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N42" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O42" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>5</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V42" s="1" t="n">
         <v>6</v>
@@ -10546,18 +9892,15 @@
         <v>6</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z42" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB42" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -10598,52 +9941,49 @@
       <c r="L43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N43" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="O43" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R43" s="1" t="n">
         <v>7</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V43" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB43" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10684,41 +10024,41 @@
       <c r="L44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M44" s="1" t="n">
+      <c r="M44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="P44" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="T44" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="U44" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V44" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y44" s="1" t="n">
         <v>5</v>
@@ -10727,9 +10067,6 @@
         <v>5</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10770,20 +10107,20 @@
       <c r="L45" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M45" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N45" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O45" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R45" s="1" t="n">
         <v>8</v>
@@ -10792,10 +10129,10 @@
         <v>8</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V45" s="1" t="n">
         <v>8</v>
@@ -10807,15 +10144,12 @@
         <v>8</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB45" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -10856,26 +10190,26 @@
       <c r="L46" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M46" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N46" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="O46" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>8</v>
@@ -10887,21 +10221,18 @@
         <v>8</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X46" s="1" t="n">
         <v>9</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB46" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -10942,52 +10273,49 @@
       <c r="L47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M47" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N47" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="O47" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T47" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="U47" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" s="1" t="n">
         <v>5</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y47" s="1" t="n">
         <v>5</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB47" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -11028,52 +10356,49 @@
       <c r="L48" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M48" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N48" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="O48" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>9</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V48" s="1" t="n">
         <v>9</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z48" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA48" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB48" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11114,52 +10439,49 @@
       <c r="L49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M49" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N49" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O49" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R49" s="1" t="n">
         <v>6</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V49" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X49" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z49" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA49" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB49" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11200,29 +10522,29 @@
       <c r="L50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M50" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N50" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O50" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S50" s="1" t="n">
         <v>9</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U50" s="1" t="n">
         <v>7</v>
@@ -11231,21 +10553,18 @@
         <v>7</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB50" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -11286,52 +10605,49 @@
       <c r="L51" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M51" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N51" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O51" s="1" t="n">
         <v>6</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V51" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y51" s="1" t="n">
         <v>9</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB51" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -11372,32 +10688,32 @@
       <c r="L52" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M52" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N52" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O52" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S52" s="1" t="n">
         <v>6</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V52" s="1" t="n">
         <v>7</v>
@@ -11406,18 +10722,15 @@
         <v>7</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y52" s="1" t="n">
         <v>10</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB52" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11458,52 +10771,49 @@
       <c r="L53" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M53" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N53" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="O53" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R53" s="1" t="n">
         <v>7</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V53" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z53" s="1" t="n">
         <v>7</v>
       </c>
       <c r="AA53" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB53" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -11544,32 +10854,32 @@
       <c r="L54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M54" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N54" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O54" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q54" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S54" s="1" t="n">
         <v>6</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V54" s="1" t="n">
         <v>7</v>
@@ -11578,18 +10888,15 @@
         <v>7</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y54" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB54" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -11630,52 +10937,49 @@
       <c r="L55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M55" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N55" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O55" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q55" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S55" s="1" t="n">
         <v>4</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V55" s="1" t="n">
         <v>9</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X55" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB55" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -11716,52 +11020,49 @@
       <c r="L56" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M56" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="N56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N56" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O56" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q56" s="1" t="n">
         <v>8</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V56" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB56" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11802,38 +11103,38 @@
       <c r="L57" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M57" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N57" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O57" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q57" s="1" t="n">
         <v>7</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V57" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X57" s="1" t="n">
         <v>6</v>
@@ -11842,12 +11143,9 @@
         <v>6</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -11888,52 +11186,49 @@
       <c r="L58" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M58" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N58" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O58" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V58" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB58" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11975,14 +11270,12 @@
         <v>26</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O59" s="1" t="n">
+      <c r="N59" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -11995,7 +11288,6 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -12034,14 +11326,14 @@
       <c r="L60" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M60" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N60" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="O60" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P60" s="1" t="n">
         <v>7</v>
@@ -12050,16 +11342,16 @@
         <v>7</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V60" s="1" t="n">
         <v>7</v>
@@ -12068,18 +11360,15 @@
         <v>7</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -12120,52 +11409,49 @@
       <c r="L61" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M61" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N61" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O61" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q61" s="1" t="n">
         <v>5</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z61" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U61" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="V61" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="W61" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="X61" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y61" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z61" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="AA61" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB61" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12206,52 +11492,49 @@
       <c r="L62" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M62" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N62" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="O62" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>7</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T62" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U62" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V62" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>6</v>
       </c>
       <c r="Y62" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z62" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA62" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB62" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -12292,17 +11575,17 @@
       <c r="L63" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="M63" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="N63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N63" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="O63" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q63" s="1" t="n">
         <v>10</v>
@@ -12311,33 +11594,30 @@
         <v>10</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T63" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U63" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V63" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X63" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y63" s="1" t="n">
         <v>10</v>
       </c>
       <c r="Z63" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA63" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB63" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12378,12 +11658,12 @@
       <c r="L64" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M64" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N64" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="O64" s="1" t="n">
         <v>4</v>
       </c>
@@ -12391,39 +11671,36 @@
         <v>4</v>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U64" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V64" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W64" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X64" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y64" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z64" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T64" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="U64" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="V64" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="W64" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="X64" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y64" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z64" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="AA64" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB64" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -12465,14 +11742,12 @@
         <v>26</v>
       </c>
       <c r="M65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -12485,7 +11760,6 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -12524,52 +11798,49 @@
       <c r="L66" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M66" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N66" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O66" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R66" s="1" t="n">
         <v>4</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U66" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V66" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X66" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y66" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z66" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA66" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB66" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -12610,17 +11881,17 @@
       <c r="L67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M67" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N67" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="O67" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q67" s="1" t="n">
         <v>7</v>
@@ -12632,30 +11903,27 @@
         <v>7</v>
       </c>
       <c r="T67" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U67" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V67" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X67" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y67" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z67" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA67" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB67" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -12696,23 +11964,23 @@
       <c r="L68" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N68" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="O68" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S68" s="1" t="n">
         <v>3</v>
@@ -12721,27 +11989,24 @@
         <v>3</v>
       </c>
       <c r="U68" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V68" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X68" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y68" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z68" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA68" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB68" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12783,28 +12048,28 @@
         <v>6</v>
       </c>
       <c r="M69" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q69" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R69" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S69" s="1" t="n">
         <v>8</v>
       </c>
       <c r="T69" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U69" s="1" t="n">
         <v>7</v>
@@ -12816,18 +12081,15 @@
         <v>7</v>
       </c>
       <c r="X69" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y69" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z69" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA69" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB69" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -12869,31 +12131,31 @@
         <v>10</v>
       </c>
       <c r="M70" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q70" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R70" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S70" s="1" t="n">
         <v>10</v>
       </c>
       <c r="T70" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U70" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V70" s="1" t="n">
         <v>9</v>
@@ -12902,18 +12164,15 @@
         <v>9</v>
       </c>
       <c r="X70" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y70" s="1" t="n">
         <v>10</v>
       </c>
       <c r="Z70" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA70" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB70" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -12958,34 +12217,34 @@
         <v>8</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T71" s="1" t="n">
         <v>7</v>
       </c>
       <c r="U71" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V71" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X71" s="1" t="n">
         <v>10</v>
@@ -12994,12 +12253,9 @@
         <v>10</v>
       </c>
       <c r="Z71" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA71" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB71" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13041,13 +12297,13 @@
         <v>9</v>
       </c>
       <c r="M72" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>9</v>
@@ -13056,10 +12312,10 @@
         <v>9</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T72" s="1" t="n">
         <v>9</v>
@@ -13071,7 +12327,7 @@
         <v>9</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X72" s="1" t="n">
         <v>10</v>
@@ -13080,12 +12336,9 @@
         <v>10</v>
       </c>
       <c r="Z72" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA72" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB72" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -13127,51 +12380,48 @@
         <v>9</v>
       </c>
       <c r="M73" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N73" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O73" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q73" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R73" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T73" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U73" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V73" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X73" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y73" s="1" t="n">
         <v>10</v>
       </c>
       <c r="Z73" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA73" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB73" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13213,31 +12463,31 @@
         <v>10</v>
       </c>
       <c r="M74" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q74" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R74" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S74" s="1" t="n">
         <v>10</v>
       </c>
       <c r="T74" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U74" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V74" s="1" t="n">
         <v>9</v>
@@ -13246,18 +12496,15 @@
         <v>9</v>
       </c>
       <c r="X74" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y74" s="1" t="n">
         <v>10</v>
       </c>
       <c r="Z74" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA74" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB74" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -13299,40 +12546,40 @@
         <v>10</v>
       </c>
       <c r="M75" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O75" s="1" t="n">
         <v>8</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R75" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T75" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U75" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V75" s="1" t="n">
         <v>8</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X75" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y75" s="1" t="n">
         <v>10</v>
@@ -13341,9 +12588,6 @@
         <v>10</v>
       </c>
       <c r="AA75" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB75" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13385,37 +12629,37 @@
         <v>8</v>
       </c>
       <c r="M76" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N76" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q76" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R76" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S76" s="1" t="n">
         <v>8</v>
       </c>
       <c r="T76" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U76" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V76" s="1" t="n">
         <v>9</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X76" s="1" t="n">
         <v>10</v>
@@ -13424,12 +12668,9 @@
         <v>10</v>
       </c>
       <c r="Z76" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA76" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13471,7 +12712,7 @@
         <v>9</v>
       </c>
       <c r="M77" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N77" s="1" t="n">
         <v>8</v>
@@ -13480,19 +12721,19 @@
         <v>8</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T77" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U77" s="1" t="n">
         <v>9</v>
@@ -13501,7 +12742,7 @@
         <v>9</v>
       </c>
       <c r="W77" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X77" s="1" t="n">
         <v>10</v>
@@ -13510,12 +12751,9 @@
         <v>10</v>
       </c>
       <c r="Z77" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA77" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB77" s="1" t="n">
         <v>9</v>
       </c>
     </row>
